--- a/biology/Médecine/Prix_Gruber_de_génétique/Prix_Gruber_de_génétique.xlsx
+++ b/biology/Médecine/Prix_Gruber_de_génétique/Prix_Gruber_de_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Gruber_de_g%C3%A9n%C3%A9tique</t>
+          <t>Prix_Gruber_de_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Peter-Gruber de génétique est une distinction décernée par la fondation Gruber depuis 2001. Il distingue des individus ayant contribué à des avancées fondamentales dans le domaine de la génétique. Sa dotation annuelle est de 500 000 dollars[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Peter-Gruber de génétique est une distinction décernée par la fondation Gruber depuis 2001. Il distingue des individus ayant contribué à des avancées fondamentales dans le domaine de la génétique. Sa dotation annuelle est de 500 000 dollars,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Gruber_de_g%C3%A9n%C3%A9tique</t>
+          <t>Prix_Gruber_de_génétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Liste des récipiendaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2023 : Allan Jacobson et Lynne Maquat
 2022 : Ruth Lehmann, James Priess et Geraldine Seydoux
 2021 : Stuart Orkin
 2020 : Bonnie Bassler
-2019 : Bert Vogelstein[3]
-2018 : Joanne Chory et Elliot Meyerowitz (en)[4]
-2017 : Stephen Elledge [5]
-2016 : Michael Grunstein, Charles David Allis (en) [6]
-2015 : Emmanuelle Charpentier et Jennifer Doudna[7]
+2019 : Bert Vogelstein
+2018 : Joanne Chory et Elliot Meyerowitz (en)
+2017 : Stephen Elledge 
+2016 : Michael Grunstein, Charles David Allis (en) 
+2015 : Emmanuelle Charpentier et Jennifer Doudna
 2014 : Victor Ambros, David Baulcombe et Gary Ruvkun (en)
 2013 : Svante Pääbo
 2012 : Douglas Wallace (en)
